--- a/03_Results/06_08RE_ImpactPrevalenceLandCoverPanel.xlsx
+++ b/03_Results/06_08RE_ImpactPrevalenceLandCoverPanel.xlsx
@@ -38,19 +38,19 @@
     <t>Time Lag of Prevalence</t>
   </si>
   <si>
-    <t>(-0.81815 - -0.61603)</t>
+    <t>(0.61293 - 0.81882)</t>
   </si>
   <si>
-    <t>(-0.11885 - -0.03226)</t>
+    <t>(-0.3642 - -0.09414)</t>
   </si>
   <si>
-    <t>(-0.96382 - -0.7339)</t>
+    <t>(-2.88813 - -2.19964)</t>
   </si>
   <si>
-    <t>(0.68876 - 1.02606)</t>
+    <t>(2.1055 - 3.02592)</t>
   </si>
   <si>
-    <t>(-0.74136 - -0.5592)</t>
+    <t>(-0.74187 - -0.55895)</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.71709</v>
+        <v>0.71588</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -128,7 +128,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.07556</v>
+        <v>-0.22917</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -139,7 +139,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.84886</v>
+        <v>-2.54389</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -150,7 +150,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="n">
-        <v>0.85741</v>
+        <v>2.56571</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -161,7 +161,7 @@
         <v>7</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.65028</v>
+        <v>-0.65041</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
